--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/va-spring-2019-selenium-testng/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruslan\IdeaProjects\va-spring-2019-selenium-testng\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B509121-9282-8149-948F-18F28F7A97E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{91ED3504-8F9D-994C-9701-E99A78B95D4B}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="18924"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -158,12 +157,19 @@
   </si>
   <si>
     <t>Lima</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -509,145 +515,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -656,20 +710,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC3648-E8E8-9448-9152-C17D7B392B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="342" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -677,7 +731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -685,7 +739,7 @@
         <v>37435191</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -693,7 +747,7 @@
         <v>29399141</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -701,7 +755,7 @@
         <v>26317104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -709,7 +763,7 @@
         <v>21846507</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -717,7 +771,7 @@
         <v>21671908</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -725,7 +779,7 @@
         <v>20484965</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -733,7 +787,7 @@
         <v>20283552</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -741,7 +795,7 @@
         <v>20185064</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -749,7 +803,7 @@
         <v>20035455</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
